--- a/Ufo enemy kill/Ufo Game.xlsx
+++ b/Ufo enemy kill/Ufo Game.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Game Report" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,10 +413,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -424,90 +425,75 @@
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Player Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Final Score</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Game Outcome</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-    </row>
+    <row r="1"/>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hujaifa</t>
+          <t>Player Name</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Final Score</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Quit</t>
+          <t>Danger Level</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-23 17:52:49</t>
+          <t>Game Outcome</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>runa</t>
+          <t>Siam</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Game Over</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2025-05-23 17:53:21</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-05-24 14:54:39</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ahsan</t>
+          <t>Abir</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -516,16 +502,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Game Over</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-23 17:53:55</t>
+          <t>Quit</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-05-24 14:57:13</t>
         </is>
       </c>
     </row>
@@ -541,191 +530,47 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="inlineStr">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Game Over</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2025-05-23 18:18:50</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-05-24 14:58:25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hujaifa</t>
+          <t>Pial</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Terminated</t>
-        </is>
+        <v>410</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-23 18:35:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Hujaifa</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Terminated</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2025-05-23 18:50:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Jack</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Terminated</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2025-05-23 18:50:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Abir</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>Game Over</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2025-05-23 19:20:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Abir</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>25</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Terminated</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2025-05-23 19:20:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Siam</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Game Over</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2025-05-23 19:40:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Siam</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Terminated</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2025-05-23 19:40:31</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-05-24 14:59:35</t>
         </is>
       </c>
     </row>
